--- a/Modelos em Python/0 dias a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
+++ b/Modelos em Python/0 dias a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6018221957958363</v>
+        <v>0.5915882671785863</v>
       </c>
       <c r="C11" t="n">
-        <v>1.946868972201421</v>
+        <v>1.930769199943123</v>
       </c>
       <c r="D11" t="n">
-        <v>3.429702222383325</v>
+        <v>3.446761674320268</v>
       </c>
     </row>
     <row r="12">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.183974597439286e-05</v>
+        <v>1.008628852310582</v>
       </c>
       <c r="C13" t="n">
-        <v>2.919990010951313e-05</v>
+        <v>2.958835589556585</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0001273463167347176</v>
+        <v>6.214783408968893</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/0 dias a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
+++ b/Modelos em Python/0 dias a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5915882671785863</v>
+        <v>0.6012425144745716</v>
       </c>
       <c r="C11" t="n">
-        <v>1.930769199943123</v>
+        <v>1.958300138662523</v>
       </c>
       <c r="D11" t="n">
-        <v>3.446761674320268</v>
+        <v>3.46556615842088</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0244373043720676</v>
+        <v>0.01310781677262529</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08827621873827807</v>
+        <v>0.04716332397934363</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1258234978088962</v>
+        <v>0.06914487636259531</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.008628852310582</v>
+        <v>0.9452640379749043</v>
       </c>
       <c r="C13" t="n">
-        <v>2.958835589556585</v>
+        <v>3.248614827440376</v>
       </c>
       <c r="D13" t="n">
-        <v>6.214783408968893</v>
+        <v>5.056895211564648</v>
       </c>
     </row>
   </sheetData>
